--- a/medicine/Enfance/Lynn_Flewelling/Lynn_Flewelling.xlsx
+++ b/medicine/Enfance/Lynn_Flewelling/Lynn_Flewelling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lynn Flewelling, née le 20 octobre 1958 à Presque Isle dans le Maine, est une écrivaine américaine de fantasy, auteur de deux séries, Nightrunners (en) et Le Royaume de Tobin (The Tamír Triad), mais aussi de livres pour enfants. Elle est diplômée de l'université du Maine.
 </t>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Nightrunners
-Les Maîtres de l'ombre, Mnémos, 2008 ((en) Luck in the Shadows, Bantam Spectra, 1996)Réédition, Bragelonne, 2010
+          <t>Série Nightrunners</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Maîtres de l'ombre, Mnémos, 2008 ((en) Luck in the Shadows, Bantam Spectra, 1996)Réédition, Bragelonne, 2010
 Les Traqueurs de la nuit, Bragelonne, 2010 ((en) Stalking Darkness, Bantam Spectra, 1997)
 La Lune des traîtres, Bragelonne, 2011 ((en) Traitor's Moon, Bantam Spectra, 1999)
 Le Retour des ombres, Bragelonne, 2012 ((en) Shadows Return, Bantam Spectra, 2008)
 La Route blanche, Bragelonne, 2018 ((en) The White Road, Bantam Spectra, 2010)
 Le Coffre des âmes, Bragelonne, 2018 ((en) Casket of Souls, Bantam Spectra, 2012)
-Les Éclats du temps, Bragelonne, 2018 ((en) Shards of Time, Bantam Spectra, 2014)
-Série Le Royaume de Tobin
-Les trois tomes de l'édition en langue anglaise ont été scindés en six tomes pour l'édition française mais ensuite réédités en version intégrale par les éditions J'ai lu.
+Les Éclats du temps, Bragelonne, 2018 ((en) Shards of Time, Bantam Spectra, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lynn_Flewelling</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lynn_Flewelling</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Le Royaume de Tobin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les trois tomes de l'édition en langue anglaise ont été scindés en six tomes pour l'édition française mais ensuite réédités en version intégrale par les éditions J'ai lu.
 Le Royaume de Tobin : L'Intégrale 1, J'ai lu, 2011 ((en) The Bone Doll's Twin, Bantam Spectra, 2001)
 Les Jumeaux, Pygmalion, 2004
 Les Années d'apprentissage, Pygmalion, 2004
@@ -531,14 +582,82 @@
  La Révélation, Pygmalion, 2006
 Le Royaume de Tobin : L'Intégrale 3, J'ai lu, 2012 ((en) The Oracle's Queen, Bantam Spectra, 2006)
  La Troisième Orëska, Pygmalion, 2007
- La Reine de l'Oracle, Pygmalion, 2008
-Récits
-Letter To Alexi in Prisoners of the Night, 1995
+ La Reine de l'Oracle, Pygmalion, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lynn_Flewelling</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lynn_Flewelling</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Letter To Alexi in Prisoners of the Night, 1995
 Raven's Cut in Assassin Fantastic anthology, Martin Greenberg and Alex Potter, ed. DAW books.
 The Complete Nobody's Guide to Query Letters in Speculations, 1999, reprinted on SFWA website and in The Writer's Guide to Queries, Pitches and Proposals by Moira Allen, Allsworth Press (2001)
-Perfection in Elemental: The Tsunami Relief Anthology: Stories of Science Fiction and Fantasy, Steven Savile and Alethea Kontis, ed, TOR Books, 2006.
-Recueil de nouvelles
-(en) Glimpses, Three Crow, 2010Ensemble de petites nouvelles sur l'univers de Nighrunners, avec des scènes avant, et pendant la série. Le recueil se compose de cinq nouvelles et de nombreuses illustrations de fans</t>
+Perfection in Elemental: The Tsunami Relief Anthology: Stories of Science Fiction and Fantasy, Steven Savile and Alethea Kontis, ed, TOR Books, 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lynn_Flewelling</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lynn_Flewelling</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Glimpses, Three Crow, 2010Ensemble de petites nouvelles sur l'univers de Nighrunners, avec des scènes avant, et pendant la série. Le recueil se compose de cinq nouvelles et de nombreuses illustrations de fans</t>
         </is>
       </c>
     </row>
